--- a/AUC.xlsx
+++ b/AUC.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\analyze_label_distribution_2_AUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231C3FCA-76C8-4991-BCB8-8D09E70CC0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EF2483-30CC-468B-BF1A-78A13479D868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AUC" sheetId="1" r:id="rId1"/>
     <sheet name="PR-AUC" sheetId="2" r:id="rId2"/>
+    <sheet name="two source" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>sigma=0.3</t>
   </si>
@@ -50,6 +51,18 @@
   </si>
   <si>
     <t>0.600</t>
+  </si>
+  <si>
+    <t>ratio_A_0=0.2 ratio_B_0=0.05</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>AUC_diff</t>
+  </si>
+  <si>
+    <t>ratio_A_0=0.2 ratio_B_0=0.2</t>
   </si>
 </sst>
 </file>
@@ -126,9 +139,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -137,8 +153,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,18 +453,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -541,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD6E8CD-5E61-41A2-8B01-BCEE5DCF66A4}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -554,18 +573,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -603,7 +622,7 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -623,7 +642,7 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -656,4 +675,123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93355BF3-10B5-4DC7-A43E-C6939E81655B}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.265625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>-0.245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-0.188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-0.127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-5.5E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>